--- a/Другое/График_дня.xlsx
+++ b/Другое/График_дня.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Понедельник</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>8.45 - 13.00 (255 мин)</t>
+  </si>
+  <si>
+    <t>Практикум (новые темы)</t>
+  </si>
+  <si>
+    <t>Тор ДЗ (задача 2, 3)</t>
+  </si>
+  <si>
+    <t>Практикум html, css</t>
   </si>
 </sst>
 </file>
@@ -254,10 +263,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,7 +587,7 @@
   <dimension ref="B1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N8"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -587,62 +596,62 @@
     <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" customWidth="1"/>
     <col min="13" max="14" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
     </row>
     <row r="2" spans="2:22">
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <v>45396</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
         <v>45397</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10">
         <v>45398</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="14">
         <v>45399</v>
       </c>
@@ -653,16 +662,16 @@
       </c>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="9">
+      <c r="Q2" s="10">
         <v>45401</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10">
         <v>45402</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="2:22">
       <c r="K3" s="16" t="s">
@@ -728,7 +737,9 @@
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="2:22">
       <c r="K7" s="3" t="s">
@@ -742,7 +753,9 @@
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="2:22">
       <c r="K8" s="3" t="s">
@@ -756,7 +769,9 @@
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="2:22" hidden="1" outlineLevel="1">
       <c r="K9" s="3"/>
@@ -840,165 +855,137 @@
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="10"/>
+      <c r="P18" s="9"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
     </row>
     <row r="19" spans="3:22">
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>45403</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>45404</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="9">
+      <c r="I19" s="10">
         <v>45405</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="9">
+      <c r="L19" s="10">
         <v>45406</v>
       </c>
-      <c r="M19" s="10"/>
+      <c r="M19" s="9"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="9"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="9"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="9"/>
     </row>
     <row r="32" spans="3:22">
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G32" s="10"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="10"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="10"/>
+      <c r="M32" s="9"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="10" t="s">
+      <c r="O32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="10"/>
+      <c r="P32" s="9"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="10" t="s">
+      <c r="R32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S32" s="10"/>
+      <c r="S32" s="9"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="10" t="s">
+      <c r="U32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V32" s="10"/>
+      <c r="V32" s="9"/>
     </row>
     <row r="33" spans="3:22">
-      <c r="C33" s="9">
+      <c r="C33" s="10">
         <v>45410</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="9">
+      <c r="F33" s="10">
         <v>45411</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="9">
+      <c r="I33" s="10">
         <v>45412</v>
       </c>
-      <c r="J33" s="10"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="9">
+      <c r="L33" s="10">
         <v>45413</v>
       </c>
-      <c r="M33" s="10"/>
+      <c r="M33" s="9"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="9">
+      <c r="O33" s="10">
         <v>45414</v>
       </c>
-      <c r="P33" s="10"/>
+      <c r="P33" s="9"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="9">
+      <c r="R33" s="10">
         <v>45415</v>
       </c>
-      <c r="S33" s="10"/>
+      <c r="S33" s="9"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="9">
+      <c r="U33" s="10">
         <v>45416</v>
       </c>
-      <c r="V33" s="10"/>
+      <c r="V33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="N5:N8"/>
@@ -1015,6 +1002,34 @@
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
